--- a/public/testsource/Testovací tabulka.xlsx
+++ b/public/testsource/Testovací tabulka.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADE8189-0265-48F3-A6F7-9086F1EC1035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33403936-2941-4AEC-AA25-2ACA02DF4B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="2380" windowWidth="16500" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="22186" windowHeight="14133" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="100">
   <si>
     <t>Název:</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Procházka Václav</t>
   </si>
   <si>
-    <t>03.02.2025 15:54:15</t>
-  </si>
-  <si>
     <t>04.02.2025 07:31:26</t>
   </si>
   <si>
@@ -266,6 +263,72 @@
   </si>
   <si>
     <t>Durich</t>
+  </si>
+  <si>
+    <t>20.02.2025 07:31:30</t>
+  </si>
+  <si>
+    <t>20.02.2025 15:51:40</t>
+  </si>
+  <si>
+    <t>21.02.2025 07:30:22</t>
+  </si>
+  <si>
+    <t>21.02.2025 08:30:28</t>
+  </si>
+  <si>
+    <t>21.02.2025 16:53:32</t>
+  </si>
+  <si>
+    <t>22.02.2025 06:23:23</t>
+  </si>
+  <si>
+    <t>23.02.2025 00:39:25</t>
+  </si>
+  <si>
+    <t>23.02.2025 05:44:42</t>
+  </si>
+  <si>
+    <t>23.02.2025 05:44:45</t>
+  </si>
+  <si>
+    <t>23.02.2025 05:46:17</t>
+  </si>
+  <si>
+    <t>24.02.2025 07:30:04</t>
+  </si>
+  <si>
+    <t>24.02.2025 15:55:42</t>
+  </si>
+  <si>
+    <t>25.02.2025 07:29:30</t>
+  </si>
+  <si>
+    <t>25.02.2025 15:46:43</t>
+  </si>
+  <si>
+    <t>26.02.2025 07:18:34</t>
+  </si>
+  <si>
+    <t>26.02.2025 12:55:44</t>
+  </si>
+  <si>
+    <t>26.02.2025 15:45:26</t>
+  </si>
+  <si>
+    <t>27.02.2025 07:25:31</t>
+  </si>
+  <si>
+    <t>27.02.2025 15:57:07</t>
+  </si>
+  <si>
+    <t>27.02.2025 21:04:10</t>
+  </si>
+  <si>
+    <t>28.02.2025 07:29:58</t>
+  </si>
+  <si>
+    <t>28.02.2025 15:53:36</t>
   </si>
 </sst>
 </file>
@@ -275,12 +338,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,6 +364,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="4">
@@ -393,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -405,15 +483,24 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,6 +512,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,7 +801,7 @@
   </sheetPr>
   <dimension ref="B1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -744,34 +834,34 @@
       </c>
     </row>
     <row r="3" spans="2:21" ht="32.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="12" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="12" t="s">
+      <c r="O3" s="17"/>
+      <c r="P3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="15" t="s">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
     </row>
     <row r="4" spans="2:21" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B4" s="3" t="s">
@@ -951,7 +1041,7 @@
     </row>
     <row r="7" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="5">
         <v>45690</v>
@@ -1407,7 +1497,7 @@
     </row>
     <row r="15" spans="2:21" ht="18.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="5">
         <v>45696</v>
@@ -3111,17 +3201,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD70"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="35.76171875" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
@@ -3166,7 +3256,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="11">
-        <v>7.2175925925925921E-2</v>
+        <v>0.28050925926072523</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3180,49 +3270,49 @@
         <v>35</v>
       </c>
       <c r="D7" s="11">
-        <v>7.2696759259259253E-2</v>
+        <v>0.28103009259211831</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>36</v>
+      <c r="B8" s="19">
+        <v>45691.662673611114</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="11">
-        <v>0.16267361111111112</v>
+        <v>0.66059027777777779</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>37</v>
+      <c r="B9" s="19">
+        <v>45691.661979166667</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="11">
-        <v>0.18849537037037037</v>
+        <v>0.66197916666666667</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>38</v>
+      <c r="B10" s="19">
+        <v>45691.704340277778</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="11">
-        <v>0.19829861111111111</v>
+        <v>0.70434027777777775</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3230,13 +3320,13 @@
         <v>31</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="11">
-        <v>0.23068287037037039</v>
+        <v>0.31349537037021946</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3244,13 +3334,13 @@
         <v>31</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="11">
-        <v>0.22146990740740743</v>
+        <v>0.65663194444641704</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3258,13 +3348,13 @@
         <v>31</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11">
-        <v>0.27027777777777778</v>
+        <v>0.31401620370161254</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3272,13 +3362,13 @@
         <v>31</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="11">
-        <v>0.31263888888888891</v>
+        <v>0.76313657407445135</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3286,13 +3376,13 @@
         <v>31</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D15" s="11">
-        <v>0.30953703703703705</v>
+        <v>0.31194444444554392</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3300,13 +3390,13 @@
         <v>31</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D16" s="11">
-        <v>0.30957175925925928</v>
+        <v>0.312638888892252</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3314,13 +3404,13 @@
         <v>31</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D17" s="11">
-        <v>0.35428240740740735</v>
+        <v>0.68453703703562496</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3328,13 +3418,13 @@
         <v>31</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D18" s="11">
-        <v>0.35855324074074074</v>
+        <v>0.68457175925868796</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3342,13 +3432,13 @@
         <v>31</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="11">
-        <v>0.4120949074074074</v>
+        <v>0.31261574073869269</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3356,13 +3446,13 @@
         <v>31</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D20" s="11">
-        <v>0.38518518518518519</v>
+        <v>0.31688657407357823</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3370,13 +3460,13 @@
         <v>31</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="11">
-        <v>0.39834490740740736</v>
+        <v>0.24542824074160308</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3384,13 +3474,13 @@
         <v>31</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22" s="11">
-        <v>0.41006944444444443</v>
+        <v>0.26018518518685596</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3398,13 +3488,13 @@
         <v>31</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="11">
-        <v>0.44142361111111117</v>
+        <v>0.73167824074334931</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3412,13 +3502,13 @@
         <v>31</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="11">
-        <v>0.45306712962962964</v>
+        <v>0.74340277777810115</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3426,13 +3516,13 @@
         <v>31</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25" s="11">
-        <v>0.47980324074074071</v>
+        <v>0.3164236111115315</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3440,13 +3530,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="11">
-        <v>0.48290509259259262</v>
+        <v>0.66140046296641231</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3454,13 +3544,13 @@
         <v>31</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="11">
-        <v>0.52127314814814818</v>
+        <v>0.31313657407736173</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3468,13 +3558,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="11">
-        <v>0.52662037037037035</v>
+        <v>0.64957175926247146</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3482,13 +3572,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D29" s="11">
-        <v>0.54682870370370362</v>
+        <v>0.31293981481576338</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3496,13 +3586,13 @@
         <v>31</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="11">
-        <v>0.56482638888888892</v>
+        <v>0.65162037037225673</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3510,13 +3600,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D31" s="11">
-        <v>0.57718749999999996</v>
+        <v>0.130162037035916</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3524,13 +3614,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" s="11">
-        <v>0.60585648148148152</v>
+        <v>0.31482638888701331</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3538,13 +3628,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" s="11">
-        <v>0.60635416666666675</v>
+        <v>0.66052083333488554</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3552,13 +3642,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" s="11">
-        <v>0.63771990740740736</v>
+        <v>0.31418981481692754</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3566,13 +3656,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D35" s="11">
-        <v>0.64935185185185185</v>
+        <v>0.64802083333051996</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3580,13 +3670,13 @@
         <v>31</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36" s="11">
-        <v>0.70225694444444442</v>
+        <v>0.26271990740497131</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3594,13 +3684,13 @@
         <v>31</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="11">
-        <v>0.70678240740740739</v>
+        <v>0.27435185185458977</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3608,13 +3698,13 @@
         <v>31</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="11">
-        <v>0.69953703703703696</v>
+        <v>0.24392361110949423</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3622,13 +3712,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="11">
-        <v>0.69982638888888882</v>
+        <v>0.24844907407532446</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3636,41 +3726,41 @@
         <v>31</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" s="11">
-        <v>0.74564814814814817</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.35" x14ac:dyDescent="0.5">
+        <v>0.69953703703504289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="11">
-        <v>0.74954861111111115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="14.35" x14ac:dyDescent="0.5">
+        <v>0.69982638888905058</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="11">
-        <v>0.73078703703703707</v>
+        <v>0.28731481481372612</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.35" x14ac:dyDescent="0.5">
@@ -3678,13 +3768,13 @@
         <v>31</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D43" s="11">
-        <v>0.72833333333333339</v>
+        <v>0.29121527777897427</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.35" x14ac:dyDescent="0.5">
@@ -3692,13 +3782,13 @@
         <v>31</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D44" s="11">
-        <v>0.74553240740740745</v>
+        <v>0.31412037037080154</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.35" x14ac:dyDescent="0.5">
@@ -3706,13 +3796,13 @@
         <v>31</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D45" s="11">
-        <v>0.7711689814814815</v>
+        <v>0.56166666666831588</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.35" x14ac:dyDescent="0.5">
@@ -3720,13 +3810,13 @@
         <v>31</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" s="11">
-        <v>0.78057870370370375</v>
+        <v>0.66219907407503342</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.35" x14ac:dyDescent="0.5">
@@ -3734,13 +3824,13 @@
         <v>31</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" s="11">
-        <v>0.81336805555555558</v>
+        <v>0.31283564814657439</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.35" x14ac:dyDescent="0.5">
@@ -3748,13 +3838,327 @@
         <v>31</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="11">
-        <v>0.81406250000000002</v>
+        <v>0.65557870370685123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A49" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0.31336805555474712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="A50" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0.64739583332993789</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="10"/>
+      <c r="B51" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="14">
+        <f t="shared" ref="D51:D72" si="0">TIMEVALUE(B51)</f>
+        <v>0.31354166667006211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="10"/>
+      <c r="B52" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="14">
+        <f t="shared" si="0"/>
+        <v>0.66087962962774327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="10"/>
+      <c r="B53" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="14">
+        <f t="shared" si="0"/>
+        <v>0.31275462963094469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="10"/>
+      <c r="B54" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="14">
+        <f t="shared" si="0"/>
+        <v>0.35449074074131204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="10"/>
+      <c r="B55" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="14">
+        <f t="shared" si="0"/>
+        <v>0.70384259259299142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="10"/>
+      <c r="B56" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="14">
+        <f t="shared" si="0"/>
+        <v>0.26623842592380242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="10"/>
+      <c r="B57" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="14">
+        <f t="shared" si="0"/>
+        <v>2.7372685188311152E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="10"/>
+      <c r="B58" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="14">
+        <f t="shared" si="0"/>
+        <v>0.23937499999738066</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="10"/>
+      <c r="B59" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="14">
+        <f t="shared" si="0"/>
+        <v>0.23940972222044365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="10"/>
+      <c r="B60" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="14">
+        <f t="shared" si="0"/>
+        <v>0.24047453703678912</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="10"/>
+      <c r="B61" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="14">
+        <f t="shared" si="0"/>
+        <v>0.31254629629984265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="10"/>
+      <c r="B62" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="14">
+        <f t="shared" si="0"/>
+        <v>0.66368055555358296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="10"/>
+      <c r="B63" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="14">
+        <f t="shared" si="0"/>
+        <v>0.31215277777664596</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="10"/>
+      <c r="B64" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="14">
+        <f t="shared" si="0"/>
+        <v>0.65744212963181781</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="10"/>
+      <c r="B65" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="14">
+        <f t="shared" si="0"/>
+        <v>0.30456018518452765</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="10"/>
+      <c r="B66" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="14">
+        <f t="shared" si="0"/>
+        <v>0.53870370370714227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="10"/>
+      <c r="B67" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="14">
+        <f t="shared" si="0"/>
+        <v>0.65655092592351139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="10"/>
+      <c r="B68" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="14">
+        <f t="shared" si="0"/>
+        <v>0.30938657407386927</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="10"/>
+      <c r="B69" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="14">
+        <f t="shared" si="0"/>
+        <v>0.66466435185429873</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="10"/>
+      <c r="B70" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="14">
+        <f t="shared" si="0"/>
+        <v>0.87789351851824904</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="10"/>
+      <c r="B71" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="14">
+        <f t="shared" si="0"/>
+        <v>0.31247685185371665</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="10"/>
+      <c r="B72" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="14">
+        <f t="shared" si="0"/>
+        <v>0.66222222222131677</v>
       </c>
     </row>
   </sheetData>
